--- a/sources/Croatian_data.xlsx
+++ b/sources/Croatian_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="751">
   <si>
     <t>language_no</t>
   </si>
@@ -2396,7 +2396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
@@ -2420,7 +2420,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2703,8 +2702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2860,24 +2859,26 @@
         <v>540</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J3" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K3" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>542</v>
-      </c>
+      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="5"/>
+      <c r="S3" s="5" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
@@ -2916,15 +2917,15 @@
       <c r="L4" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="5"/>
+      <c r="S4" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
@@ -2952,9 +2953,11 @@
         <v>547</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J5" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K5" s="5" t="s">
         <v>541</v>
       </c>
@@ -2997,20 +3000,22 @@
       <c r="I6" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K6" s="5" t="s">
         <v>549</v>
       </c>
       <c r="L6" s="5"/>
-      <c r="M6" s="5" t="s">
-        <v>550</v>
-      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="S6" s="5" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -3049,15 +3054,15 @@
       <c r="L7" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>554</v>
-      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="9"/>
+      <c r="S7" s="5" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -3130,9 +3135,11 @@
         <v>556</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K9" s="5" t="s">
         <v>541</v>
       </c>
@@ -3173,9 +3180,11 @@
         <v>557</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K10" s="5" t="s">
         <v>541</v>
       </c>
@@ -3261,24 +3270,26 @@
         <v>561</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J12" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K12" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>562</v>
-      </c>
+      <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="5"/>
+      <c r="S12" s="5" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
@@ -3351,9 +3362,11 @@
         <v>566</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J14" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K14" s="5" t="s">
         <v>541</v>
       </c>
@@ -3366,7 +3379,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="9"/>
+      <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -3411,7 +3424,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="9"/>
+      <c r="S15" s="5"/>
     </row>
     <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
@@ -3439,9 +3452,11 @@
         <v>570</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K16" s="5" t="s">
         <v>541</v>
       </c>
@@ -3454,7 +3469,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
+      <c r="S16" s="5"/>
     </row>
     <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
@@ -3482,9 +3497,11 @@
         <v>571</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K17" s="5" t="s">
         <v>541</v>
       </c>
@@ -3570,9 +3587,11 @@
         <v>573</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J19" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K19" s="5" t="s">
         <v>541</v>
       </c>
@@ -3613,9 +3632,11 @@
         <v>574</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J20" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K20" s="5" t="s">
         <v>541</v>
       </c>
@@ -3628,7 +3649,7 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="9"/>
+      <c r="S20" s="5"/>
     </row>
     <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
@@ -3656,9 +3677,11 @@
         <v>575</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J21" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K21" s="5" t="s">
         <v>541</v>
       </c>
@@ -3716,7 +3739,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="9"/>
+      <c r="S22" s="5"/>
     </row>
     <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
@@ -3744,9 +3767,11 @@
         <v>579</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J23" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K23" s="5" t="s">
         <v>541</v>
       </c>
@@ -3798,15 +3823,15 @@
       <c r="L24" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="M24" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="9"/>
+      <c r="S24" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
@@ -3845,15 +3870,15 @@
       <c r="L25" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="M25" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="5"/>
+      <c r="S25" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
@@ -3892,15 +3917,15 @@
       <c r="L26" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="M26" s="5" t="s">
-        <v>585</v>
-      </c>
+      <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="5"/>
+      <c r="S26" s="5" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
@@ -3928,9 +3953,11 @@
         <v>586</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K27" s="5" t="s">
         <v>541</v>
       </c>
@@ -3971,9 +3998,11 @@
         <v>587</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K28" s="5" t="s">
         <v>541</v>
       </c>
@@ -4014,9 +4043,11 @@
         <v>588</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J29" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K29" s="5" t="s">
         <v>541</v>
       </c>
@@ -4068,15 +4099,15 @@
       <c r="L30" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M30" s="5" t="s">
-        <v>590</v>
-      </c>
+      <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="9"/>
+      <c r="S30" s="5" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
@@ -4149,9 +4180,11 @@
         <v>594</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J32" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K32" s="5" t="s">
         <v>541</v>
       </c>
@@ -4203,15 +4236,15 @@
       <c r="L33" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="M33" s="5" t="s">
-        <v>596</v>
-      </c>
+      <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="5"/>
+      <c r="S33" s="5" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
@@ -4239,9 +4272,11 @@
         <v>597</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J34" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K34" s="5" t="s">
         <v>541</v>
       </c>
@@ -4282,9 +4317,11 @@
         <v>598</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J35" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K35" s="5" t="s">
         <v>541</v>
       </c>
@@ -4325,9 +4362,11 @@
         <v>599</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J36" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K36" s="5" t="s">
         <v>541</v>
       </c>
@@ -4368,9 +4407,11 @@
         <v>600</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J37" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K37" s="5" t="s">
         <v>541</v>
       </c>
@@ -4422,15 +4463,15 @@
       <c r="L38" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M38" s="5" t="s">
-        <v>602</v>
-      </c>
+      <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="5"/>
+      <c r="S38" s="5" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
@@ -4458,24 +4499,26 @@
         <v>603</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J39" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K39" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L39" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M39" s="5" t="s">
-        <v>604</v>
-      </c>
+      <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="5"/>
+      <c r="S39" s="5" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
@@ -4503,9 +4546,11 @@
         <v>605</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J40" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K40" s="5" t="s">
         <v>541</v>
       </c>
@@ -4546,24 +4591,26 @@
         <v>606</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J41" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K41" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M41" s="5" t="s">
-        <v>607</v>
-      </c>
+      <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
-      <c r="S41" s="5"/>
+      <c r="S41" s="5" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="42" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
@@ -4591,9 +4638,11 @@
         <v>608</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J42" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K42" s="5" t="s">
         <v>541</v>
       </c>
@@ -4645,15 +4694,15 @@
       <c r="L43" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="M43" s="5" t="s">
-        <v>612</v>
-      </c>
+      <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="5"/>
+      <c r="S43" s="5" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
@@ -4681,9 +4730,11 @@
         <v>613</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J44" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K44" s="5" t="s">
         <v>541</v>
       </c>
@@ -4724,9 +4775,11 @@
         <v>614</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J45" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K45" s="5" t="s">
         <v>541</v>
       </c>
@@ -4812,24 +4865,26 @@
         <v>616</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J47" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K47" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M47" s="5" t="s">
-        <v>617</v>
-      </c>
+      <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="5"/>
+      <c r="S47" s="5" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
@@ -4947,9 +5002,11 @@
         <v>622</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J50" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K50" s="5" t="s">
         <v>541</v>
       </c>
@@ -4990,9 +5047,11 @@
         <v>623</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J51" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K51" s="5" t="s">
         <v>541</v>
       </c>
@@ -5044,15 +5103,15 @@
       <c r="L52" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="M52" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="5"/>
+      <c r="S52" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
@@ -5080,9 +5139,11 @@
         <v>626</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J53" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K53" s="5" t="s">
         <v>541</v>
       </c>
@@ -5123,9 +5184,11 @@
         <v>627</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J54" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K54" s="5" t="s">
         <v>541</v>
       </c>
@@ -5177,15 +5240,15 @@
       <c r="L55" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="M55" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="5"/>
+      <c r="S55" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="56" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
@@ -5213,9 +5276,11 @@
         <v>629</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J56" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K56" s="5" t="s">
         <v>541</v>
       </c>
@@ -5267,15 +5332,15 @@
       <c r="L57" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="M57" s="5" t="s">
-        <v>632</v>
-      </c>
+      <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="5"/>
+      <c r="S57" s="5" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="58" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
@@ -5303,9 +5368,11 @@
         <v>633</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J58" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K58" s="5" t="s">
         <v>541</v>
       </c>
@@ -5436,24 +5503,26 @@
         <v>636</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J61" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K61" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L61" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M61" s="5" t="s">
-        <v>637</v>
-      </c>
+      <c r="M61" s="5"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
-      <c r="S61" s="5"/>
+      <c r="S61" s="5" t="s">
+        <v>637</v>
+      </c>
     </row>
     <row r="62" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
@@ -5492,15 +5561,15 @@
       <c r="L62" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="M62" s="5" t="s">
-        <v>639</v>
-      </c>
+      <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="5"/>
+      <c r="S62" s="5" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="63" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
@@ -5573,9 +5642,11 @@
         <v>641</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J64" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K64" s="5" t="s">
         <v>541</v>
       </c>
@@ -5627,15 +5698,15 @@
       <c r="L65" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="M65" s="5" t="s">
-        <v>645</v>
-      </c>
+      <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="5"/>
+      <c r="S65" s="5" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
@@ -5708,9 +5779,11 @@
         <v>649</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J67" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K67" s="5" t="s">
         <v>541</v>
       </c>
@@ -5762,15 +5835,15 @@
       <c r="L68" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="M68" s="5" t="s">
-        <v>653</v>
-      </c>
+      <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="5"/>
+      <c r="S68" s="5" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
@@ -5798,9 +5871,11 @@
         <v>654</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J69" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K69" s="5" t="s">
         <v>541</v>
       </c>
@@ -5841,9 +5916,11 @@
         <v>655</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J70" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K70" s="5" t="s">
         <v>541</v>
       </c>
@@ -5884,9 +5961,11 @@
         <v>656</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J71" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K71" s="5" t="s">
         <v>541</v>
       </c>
@@ -5927,9 +6006,11 @@
         <v>657</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J72" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K72" s="5" t="s">
         <v>541</v>
       </c>
@@ -5970,24 +6051,26 @@
         <v>658</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J73" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K73" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L73" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M73" s="5" t="s">
-        <v>659</v>
-      </c>
+      <c r="M73" s="5"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
-      <c r="S73" s="5"/>
+      <c r="S73" s="5" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="74" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
@@ -6026,15 +6109,15 @@
       <c r="L74" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="M74" s="5" t="s">
-        <v>663</v>
-      </c>
+      <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
-      <c r="S74" s="5"/>
+      <c r="S74" s="5" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="75" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
@@ -6062,9 +6145,11 @@
         <v>664</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J75" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K75" s="5" t="s">
         <v>541</v>
       </c>
@@ -6105,9 +6190,11 @@
         <v>665</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J76" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K76" s="5" t="s">
         <v>541</v>
       </c>
@@ -6159,15 +6246,15 @@
       <c r="L77" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M77" s="5" t="s">
-        <v>667</v>
-      </c>
+      <c r="M77" s="5"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
-      <c r="S77" s="5"/>
+      <c r="S77" s="5" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="78" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
@@ -6240,9 +6327,11 @@
         <v>669</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J79" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K79" s="5" t="s">
         <v>541</v>
       </c>
@@ -6283,9 +6372,11 @@
         <v>670</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J80" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K80" s="5" t="s">
         <v>541</v>
       </c>
@@ -6337,15 +6428,15 @@
       <c r="L81" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="M81" s="5" t="s">
-        <v>672</v>
-      </c>
+      <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="5"/>
+      <c r="S81" s="5" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="82" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
@@ -6384,15 +6475,15 @@
       <c r="L82" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="M82" s="5" t="s">
-        <v>602</v>
-      </c>
+      <c r="M82" s="5"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
-      <c r="S82" s="5"/>
+      <c r="S82" s="5" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="83" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
@@ -6431,15 +6522,15 @@
       <c r="L83" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="M83" s="5" t="s">
-        <v>677</v>
-      </c>
+      <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
-      <c r="S83" s="5"/>
+      <c r="S83" s="5" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="84" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
@@ -6478,15 +6569,15 @@
       <c r="L84" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M84" s="5" t="s">
-        <v>679</v>
-      </c>
+      <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
-      <c r="S84" s="5"/>
+      <c r="S84" s="5" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
@@ -6525,15 +6616,15 @@
       <c r="L85" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="M85" s="5" t="s">
-        <v>681</v>
-      </c>
+      <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="5"/>
+      <c r="S85" s="5" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="86" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
@@ -6561,9 +6652,11 @@
         <v>682</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J86" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K86" s="5" t="s">
         <v>541</v>
       </c>
@@ -6615,15 +6708,15 @@
       <c r="L87" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="M87" s="5" t="s">
-        <v>684</v>
-      </c>
+      <c r="M87" s="5"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
-      <c r="S87" s="5"/>
+      <c r="S87" s="5" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="88" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
@@ -6662,15 +6755,15 @@
       <c r="L88" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M88" s="5" t="s">
-        <v>686</v>
-      </c>
+      <c r="M88" s="5"/>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
-      <c r="S88" s="5"/>
+      <c r="S88" s="5" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="89" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
@@ -6709,15 +6802,15 @@
       <c r="L89" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="M89" s="5" t="s">
-        <v>687</v>
-      </c>
+      <c r="M89" s="5"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="5"/>
+      <c r="S89" s="5" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="90" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
@@ -6756,15 +6849,15 @@
       <c r="L90" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="M90" s="5" t="s">
-        <v>688</v>
-      </c>
+      <c r="M90" s="5"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="5"/>
+      <c r="S90" s="5" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
@@ -6837,24 +6930,26 @@
         <v>692</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J92" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K92" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L92" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M92" s="5" t="s">
-        <v>693</v>
-      </c>
+      <c r="M92" s="5"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
-      <c r="S92" s="5"/>
+      <c r="S92" s="5" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="93" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
@@ -6882,24 +6977,26 @@
         <v>692</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J93" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K93" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L93" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M93" s="5" t="s">
-        <v>694</v>
-      </c>
+      <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="5"/>
+      <c r="S93" s="5" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="94" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
@@ -6927,9 +7024,11 @@
         <v>695</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J94" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K94" s="5" t="s">
         <v>541</v>
       </c>
@@ -6981,15 +7080,15 @@
       <c r="L95" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="M95" s="5" t="s">
-        <v>602</v>
-      </c>
+      <c r="M95" s="5"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="5"/>
+      <c r="S95" s="5" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="96" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
@@ -7017,24 +7116,26 @@
         <v>697</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J96" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K96" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L96" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M96" s="5" t="s">
-        <v>698</v>
-      </c>
+      <c r="M96" s="5"/>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
-      <c r="S96" s="5"/>
+      <c r="S96" s="5" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="97" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
@@ -7062,9 +7163,11 @@
         <v>699</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J97" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K97" s="5" t="s">
         <v>541</v>
       </c>
@@ -7105,9 +7208,11 @@
         <v>700</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J98" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K98" s="5" t="s">
         <v>541</v>
       </c>
@@ -7159,15 +7264,15 @@
       <c r="L99" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="M99" s="5" t="s">
-        <v>602</v>
-      </c>
+      <c r="M99" s="5"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="5"/>
+      <c r="S99" s="5" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="100" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
@@ -7206,15 +7311,15 @@
       <c r="L100" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="M100" s="5" t="s">
-        <v>602</v>
-      </c>
+      <c r="M100" s="5"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="5"/>
+      <c r="S100" s="5" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
@@ -7242,24 +7347,26 @@
         <v>703</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J101" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K101" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L101" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M101" s="5" t="s">
-        <v>704</v>
-      </c>
+      <c r="M101" s="5"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="5"/>
+      <c r="S101" s="5" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="102" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
@@ -7289,20 +7396,22 @@
       <c r="I102" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="J102" s="5"/>
+      <c r="J102" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="K102" s="5" t="s">
         <v>549</v>
       </c>
       <c r="L102" s="5"/>
-      <c r="M102" s="5" t="s">
-        <v>705</v>
-      </c>
+      <c r="M102" s="5"/>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
-      <c r="S102" s="5"/>
+      <c r="S102" s="5" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="103" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
@@ -7330,9 +7439,11 @@
         <v>706</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J103" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K103" s="5" t="s">
         <v>541</v>
       </c>
@@ -7373,24 +7484,26 @@
         <v>676</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J104" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K104" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L104" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M104" s="5" t="s">
-        <v>707</v>
-      </c>
+      <c r="M104" s="5"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
-      <c r="S104" s="5"/>
+      <c r="S104" s="5" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="105" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
@@ -7463,9 +7576,11 @@
         <v>709</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J106" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K106" s="5" t="s">
         <v>541</v>
       </c>
@@ -7506,9 +7621,11 @@
         <v>710</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J107" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K107" s="5" t="s">
         <v>541</v>
       </c>
@@ -7549,9 +7666,11 @@
         <v>711</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J108" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K108" s="5" t="s">
         <v>541</v>
       </c>
@@ -7592,9 +7711,11 @@
         <v>712</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J109" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K109" s="5" t="s">
         <v>541</v>
       </c>
@@ -7635,24 +7756,26 @@
         <v>713</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J110" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K110" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L110" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M110" s="5" t="s">
-        <v>714</v>
-      </c>
+      <c r="M110" s="5"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
+      <c r="S110" s="5" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="111" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
@@ -7680,9 +7803,11 @@
         <v>715</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J111" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K111" s="5" t="s">
         <v>541</v>
       </c>
@@ -7695,7 +7820,7 @@
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
+      <c r="S111" s="5"/>
     </row>
     <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
@@ -7734,15 +7859,15 @@
       <c r="L112" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="M112" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
+      <c r="S112" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="113" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
@@ -7781,15 +7906,15 @@
       <c r="L113" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="M113" s="5" t="s">
-        <v>554</v>
-      </c>
+      <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
+      <c r="S113" s="5" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
@@ -7828,15 +7953,15 @@
       <c r="L114" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="M114" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
+      <c r="S114" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
@@ -7875,15 +8000,15 @@
       <c r="L115" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="M115" s="5" t="s">
-        <v>720</v>
-      </c>
+      <c r="M115" s="5"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
+      <c r="S115" s="5" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
@@ -7922,15 +8047,15 @@
       <c r="L116" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="M116" s="5" t="s">
-        <v>554</v>
-      </c>
+      <c r="M116" s="5"/>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
+      <c r="S116" s="5" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="117" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
@@ -7969,15 +8094,15 @@
       <c r="L117" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M117" s="5" t="s">
-        <v>725</v>
-      </c>
+      <c r="M117" s="5"/>
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
+      <c r="S117" s="5" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
@@ -8016,15 +8141,15 @@
       <c r="L118" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="M118" s="5" t="s">
-        <v>727</v>
-      </c>
+      <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
+      <c r="S118" s="5" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
@@ -8063,15 +8188,15 @@
       <c r="L119" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="M119" s="5" t="s">
-        <v>729</v>
-      </c>
+      <c r="M119" s="5"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="5"/>
+      <c r="S119" s="5" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="120" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
@@ -8099,24 +8224,26 @@
         <v>616</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J120" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K120" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L120" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M120" s="5" t="s">
-        <v>730</v>
-      </c>
+      <c r="M120" s="5"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="5"/>
+      <c r="S120" s="5" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="121" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
@@ -8189,24 +8316,26 @@
         <v>734</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J122" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K122" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L122" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M122" s="5" t="s">
-        <v>735</v>
-      </c>
+      <c r="M122" s="5"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
-      <c r="S122" s="5"/>
+      <c r="S122" s="5" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="123" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
@@ -8245,15 +8374,15 @@
       <c r="L123" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="M123" s="5" t="s">
-        <v>736</v>
-      </c>
+      <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="5"/>
+      <c r="S123" s="5" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
@@ -8292,15 +8421,15 @@
       <c r="L124" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="M124" s="5" t="s">
-        <v>738</v>
-      </c>
+      <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
-      <c r="S124" s="5"/>
+      <c r="S124" s="5" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="125" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
@@ -8328,24 +8457,26 @@
         <v>739</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J125" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K125" s="5" t="s">
         <v>541</v>
       </c>
       <c r="L125" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="M125" s="5" t="s">
-        <v>740</v>
-      </c>
+      <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="5"/>
+      <c r="S125" s="5" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
@@ -8384,15 +8515,15 @@
       <c r="L126" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="M126" s="5" t="s">
-        <v>741</v>
-      </c>
+      <c r="M126" s="5"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="5"/>
+      <c r="S126" s="5" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
@@ -8420,9 +8551,11 @@
         <v>742</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="J127" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>537</v>
+      </c>
       <c r="K127" s="5" t="s">
         <v>541</v>
       </c>
@@ -8474,15 +8607,15 @@
       <c r="L128" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="M128" s="5" t="s">
-        <v>744</v>
-      </c>
+      <c r="M128" s="5"/>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="5"/>
+      <c r="S128" s="5" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="129" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
@@ -8521,15 +8654,15 @@
       <c r="L129" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="M129" s="5" t="s">
-        <v>727</v>
-      </c>
+      <c r="M129" s="5"/>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
-      <c r="S129" s="5"/>
+      <c r="S129" s="5" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="130" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
@@ -8568,15 +8701,15 @@
       <c r="L130" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M130" s="5" t="s">
-        <v>747</v>
-      </c>
+      <c r="M130" s="5"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="5"/>
+      <c r="S130" s="5" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
@@ -8615,15 +8748,15 @@
       <c r="L131" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="M131" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M131" s="5"/>
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
-      <c r="S131" s="5"/>
+      <c r="S131" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S131"/>
